--- a/refs/litreview/full_review_guide.xlsx
+++ b/refs/litreview/full_review_guide.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="2380" windowWidth="27640" windowHeight="16080"/>
+    <workbookView xWindow="2760" yWindow="840" windowWidth="27640" windowHeight="16080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="decsens review" sheetId="1" r:id="rId1"/>
+    <sheet name="meta" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="136">
   <si>
     <t>studyID</t>
   </si>
@@ -120,13 +121,325 @@
   </si>
   <si>
     <t>A response to critic of 2015 Fu et al.</t>
+  </si>
+  <si>
+    <t>soil respiration</t>
+  </si>
+  <si>
+    <t>8 climate regions</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>Sensitivity decreases with warming in some regions, they specifically find that sensitivity colder areas are more sensitive than warmer ones, which I think fits our expectation well</t>
+  </si>
+  <si>
+    <t>study is the existence of a threshold in the relationship between RS and temperature, where RS peaks and then declines as temperature rises. Not sure of this is an artifact or not</t>
+  </si>
+  <si>
+    <t>Jian2018</t>
+  </si>
+  <si>
+    <t>Jin2019</t>
+  </si>
+  <si>
+    <t>satelite data</t>
+  </si>
+  <si>
+    <t>sort of</t>
+  </si>
+  <si>
+    <t>did not find evidence for declining sensitivity broadly. 17% of grid cells showed a delay of SOS attributed to increased winter precip</t>
+  </si>
+  <si>
+    <t>undeveloped critique of linear model "Thirdly, a linear model of SOS to temperature generates an estimation of apparent sensitivity (Wolkovich et al. 2012), which attributes all SOS changes to spring temperature regardless of other factors or deterministic trends in SOS (Zhou et al. 2001)."</t>
+  </si>
+  <si>
+    <t>Kennan2019</t>
+  </si>
+  <si>
+    <t>Hubbard Brook</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>length of time period, increasing varience, and the fact we don't understand the mechanistic relationship between temperature and phenology</t>
+  </si>
+  <si>
+    <t>discuss issues with sensitivty- different then ours but probably we all should read</t>
+  </si>
+  <si>
+    <t>Picea abies, Fagus sylvatica</t>
+  </si>
+  <si>
+    <t>Kolar2017</t>
+  </si>
+  <si>
+    <t>increase in sensitivty</t>
+  </si>
+  <si>
+    <t>TWR (tree right width)</t>
+  </si>
+  <si>
+    <t>attributed to drought mostly, esp at low elevations</t>
+  </si>
+  <si>
+    <t>carbon balance</t>
+  </si>
+  <si>
+    <t>Tibetan plateau</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>The temperature sensitivities of NPP (γNPPTemp), Rh (γRhTemp), and net ecosystem production (NEP, γNEPTemp) during the period 1961–2010 weakened by 16%, 17%, and 15%, respectively, compared with the period 1901–1960.</t>
+  </si>
+  <si>
+    <t>It is expected that the warmer temperature will initially favor vegetation growth in the alpine ecosystem until the temperature reaches an optimal value for vegetation photosynthesis.</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>seems relvant, but potentially the opposite problem of when regression demonstrate things are invarient but the actually are, where as maybe we have the opposite problem</t>
+  </si>
+  <si>
+    <t>Nee2005,2006</t>
+  </si>
+  <si>
+    <t>Lin2017</t>
+  </si>
+  <si>
+    <t>Park2018</t>
+  </si>
+  <si>
+    <t>herbs and woodies</t>
+  </si>
+  <si>
+    <t>Savage2006</t>
+  </si>
+  <si>
+    <t>response to Nee, might also be useful methods</t>
+  </si>
+  <si>
+    <t>they use a sesnitivity linear model of pheno change/degree change but not address of declining sensitivity, did find higher sensitivity in early spring phenophases and at warmer latitudes</t>
+  </si>
+  <si>
+    <t>shen2014</t>
+  </si>
+  <si>
+    <t>Northern hemisphere green up</t>
+  </si>
+  <si>
+    <t>chilling, photoperiod,</t>
+  </si>
+  <si>
+    <t>Earlier season vegetation types, i.e., the vegetation types with earlier SOSmean (mean SOS for 1982–2008), showed greater advancement of SOS during 1982–2008. The advancing rate of SOS against year was also greater in the vegetation with earlier SOSmean even the Teff increase was the same. These results of SOS against year was also greater in the vegetation with earlier SOSmean even the Teff increase wa the same. These results suggest that the spring phenology of vegetation may have high temperature sensitivity in a warmer area. See figure 9 which looks like a decline in sensitivity in warmer biomes</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>maybe our problem not phenology</t>
+  </si>
+  <si>
+    <t>opposite trend (increase sensitivity with warming)</t>
+  </si>
+  <si>
+    <t>uses days/degree no measure of decline</t>
+  </si>
+  <si>
+    <t>Vitasse</t>
+  </si>
+  <si>
+    <t>maybe our problem</t>
+  </si>
+  <si>
+    <t>decline sensitivity, maybe biological</t>
+  </si>
+  <si>
+    <t>increased chilling at high elevations and decreased at lower elevations ,we have found that fhe EPS (elevation induced phenological shift) has been significantly reduced by about 35% across the four species over the last six decades, i.e., from 34-d delay every 1,000 m increase in elevation in 1960 to 22 d·1,000 m−1 in 2016</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>1+</t>
+  </si>
+  <si>
+    <t>test decline sense but find it lacking</t>
+  </si>
+  <si>
+    <t>4 European species</t>
+  </si>
+  <si>
+    <t>Wang2014</t>
+  </si>
+  <si>
+    <t>PEP sps</t>
+  </si>
+  <si>
+    <t>figures still report sensitivity declines as Days/Degree C, They also say they calculated sensitivity with GDDs and said it was robust to other forcing window and using GDD</t>
+  </si>
+  <si>
+    <t>Increased T varience</t>
+  </si>
+  <si>
+    <t>3,1</t>
+  </si>
+  <si>
+    <t>relevant stats or discussion</t>
+  </si>
+  <si>
+    <t>relvant: The non-linear responses of plant development to temperature could cause ST to increase. Observed evidence showed that high degree-day accumulation events, such as strong warm air advection, can promote plant development (Schwartz and Marotz 1986, Schwartz and Marotz 1988). Obviously, in warmer periods, the number of high degree-day accumulation events would increase and their acceleration effect on plant development is stronger than that in colder periods.</t>
+  </si>
+  <si>
+    <t>Wang2017</t>
+  </si>
+  <si>
+    <t>Wenden</t>
+  </si>
+  <si>
+    <t>Quercus and Fagus clones</t>
+  </si>
+  <si>
+    <t>using PLS to calculate the start and end of forcing and chilling periodss. Find generally that forcing period is shorter with warming However, our results suggest that this advance could level off with further warming, i.e. when the beginning of the forcing period would occur too late to be compensated by the increasing temperatures during the forcing season as already observed during extremely warm springs in the French Alps (Asse et al., 2018).</t>
+  </si>
+  <si>
+    <t>shorter forcing period</t>
+  </si>
+  <si>
+    <t>Yin2018</t>
+  </si>
+  <si>
+    <t>Co2 cycling</t>
+  </si>
+  <si>
+    <t>Northern Hemisphere</t>
+  </si>
+  <si>
+    <t>Usui2016</t>
+  </si>
+  <si>
+    <t>migration</t>
+  </si>
+  <si>
+    <t>birds</t>
+  </si>
+  <si>
+    <t>hard to understand</t>
+  </si>
+  <si>
+    <t>suppliment</t>
+  </si>
+  <si>
+    <t>did find snesitivity varided among decades but don't try to explain it table S3</t>
+  </si>
+  <si>
+    <t>Kolarova2017</t>
+  </si>
+  <si>
+    <t>Czech</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lack of significant difference in temperature sensitivity between the coldest and warmest periods,In the most recent decades, the temperature sensitivity of both short- and long-distance migrants significantly increased.</t>
+  </si>
+  <si>
+    <t>egg laying</t>
+  </si>
+  <si>
+    <t>Samplonius2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The impact of spring warming on leaf onset is nonlinear, better represented by a logistical function of temperature than by the linear function currently implemented in biosphere models. </t>
+  </si>
+  <si>
+    <t>Zhang2017</t>
+  </si>
+  <si>
+    <t>plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no </t>
+  </si>
+  <si>
+    <t>Wang2018</t>
+  </si>
+  <si>
+    <t>phen</t>
+  </si>
+  <si>
+    <t>Syringa</t>
+  </si>
+  <si>
+    <t>found declining snesitivity only when using 10 year temperature windows and not 25 year</t>
+  </si>
+  <si>
+    <t>Zhu2019</t>
+  </si>
+  <si>
+    <t>carbon uptake</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>did not have access to full article</t>
+  </si>
+  <si>
+    <t>fungi</t>
+  </si>
+  <si>
+    <t>Vmax, Km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">climate‐driven changes in plant inputs and soil properties are important controls on enzyme kinetics </t>
+  </si>
+  <si>
+    <t>Time period, chilling, increased T varience</t>
+  </si>
+  <si>
+    <t>Allison2018</t>
+  </si>
+  <si>
+    <t>used log(paremetr)/degree C then coverted to  Q10 (exp(10xslope))</t>
+  </si>
+  <si>
+    <t>Machmuller2016</t>
+  </si>
+  <si>
+    <t>We calculated temperature sensitivity of enzyme activities using the Arrhenius model (Eq. 1): Rs ¼ aeðEa=RTÞ ð1Þ where Rs is the measured enzyme activity (nmol activity g-1 dry soil h-1), T is the incubation temperature (Kelvin), a is the pre-exponential coefficient, R is the ideal</t>
+  </si>
+  <si>
+    <t>2+,6</t>
+  </si>
+  <si>
+    <t>2+,3,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soil microbes, </t>
+  </si>
+  <si>
+    <t>extracellular enzymes</t>
+  </si>
+  <si>
+    <t>Jing2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil microbes, </t>
+  </si>
+  <si>
+    <t>Q10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -141,6 +454,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1C1D1E"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,10 +482,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -483,10 +805,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -499,7 +822,7 @@
     <col min="8" max="8" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,8 +847,11 @@
       <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -548,7 +874,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -573,8 +899,11 @@
       <c r="H3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -599,8 +928,11 @@
       <c r="H4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -625,8 +957,11 @@
       <c r="H5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -637,7 +972,7 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -650,10 +985,706 @@
       </c>
       <c r="H6" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="192" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="176" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" t="s">
+        <v>124</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I29" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="46.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/refs/litreview/full_review_guide.xlsx
+++ b/refs/litreview/full_review_guide.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="840" windowWidth="27640" windowHeight="16080"/>
+    <workbookView xWindow="0" yWindow="12960" windowWidth="40840" windowHeight="16600"/>
   </bookViews>
   <sheets>
     <sheet name="decsens review" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="146">
   <si>
     <t>studyID</t>
   </si>
@@ -433,6 +433,36 @@
   </si>
   <si>
     <t>Q10</t>
+  </si>
+  <si>
+    <t>usees.sens.metiric</t>
+  </si>
+  <si>
+    <t>uses.sens.mertic</t>
+  </si>
+  <si>
+    <t>does the paper describe sensitivity as dT/dC</t>
+  </si>
+  <si>
+    <t>yes-ish</t>
+  </si>
+  <si>
+    <t>days/m eleveation</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Kirschenbaum1995</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>good explaination of q10</t>
+  </si>
+  <si>
+    <t>3,6</t>
   </si>
 </sst>
 </file>
@@ -805,11 +835,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -820,9 +850,10 @@
     <col min="6" max="6" width="33" customWidth="1"/>
     <col min="7" max="7" width="50" customWidth="1"/>
     <col min="8" max="8" width="41.5" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -850,8 +881,11 @@
       <c r="I1" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -873,8 +907,11 @@
       <c r="G2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -902,8 +939,11 @@
       <c r="I3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="144" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -931,8 +971,11 @@
       <c r="I4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -960,8 +1003,11 @@
       <c r="I5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -986,8 +1032,11 @@
       <c r="H6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1015,8 +1064,11 @@
       <c r="I7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1044,8 +1096,11 @@
       <c r="I8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1073,8 +1128,11 @@
       <c r="I9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1102,8 +1160,11 @@
       <c r="I10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -1131,8 +1192,11 @@
       <c r="I11" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -1157,8 +1221,11 @@
       <c r="I12">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -1183,8 +1250,11 @@
       <c r="I13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -1207,7 +1277,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="192" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="192" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -1235,8 +1305,11 @@
       <c r="I15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -1261,8 +1334,11 @@
       <c r="I16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -1290,8 +1366,11 @@
       <c r="I17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="176" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="176" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -1316,8 +1395,11 @@
       <c r="I18" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="144" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -1345,8 +1427,11 @@
       <c r="I19" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -1371,8 +1456,11 @@
       <c r="I20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -1394,8 +1482,11 @@
       <c r="G21" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="J21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -1420,8 +1511,11 @@
       <c r="I22" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>108</v>
       </c>
@@ -1443,8 +1537,11 @@
       <c r="I23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -1469,8 +1566,11 @@
       <c r="I24">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="J24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>113</v>
       </c>
@@ -1498,8 +1598,11 @@
       <c r="I25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -1521,8 +1624,11 @@
       <c r="I26" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>125</v>
       </c>
@@ -1550,8 +1656,11 @@
       <c r="I27" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+      <c r="J27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>127</v>
       </c>
@@ -1577,8 +1686,11 @@
       <c r="I28" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>133</v>
       </c>
@@ -1602,6 +1714,35 @@
       </c>
       <c r="I29" t="s">
         <v>129</v>
+      </c>
+      <c r="J29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" t="s">
+        <v>145</v>
+      </c>
+      <c r="J30" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1612,23 +1753,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="46.5" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1636,7 +1784,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1644,7 +1792,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1652,7 +1800,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1660,7 +1808,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1668,7 +1816,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1676,7 +1824,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>80</v>
       </c>

--- a/refs/litreview/full_review_guide.xlsx
+++ b/refs/litreview/full_review_guide.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielbuonaiuto/Documents/git/decsens/refs/litreview/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12960" windowWidth="40840" windowHeight="16600"/>
+    <workbookView xWindow="18600" yWindow="5640" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="decsens review" sheetId="1" r:id="rId1"/>
     <sheet name="meta" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -468,7 +466,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -581,7 +579,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -633,7 +631,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -827,7 +825,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -838,14 +836,16 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="A25:J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
     <col min="7" max="7" width="50" customWidth="1"/>
@@ -853,7 +853,7 @@
     <col min="10" max="10" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -885,7 +885,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -911,7 +911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="48">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -943,7 +943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="144" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="144">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -975,7 +975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="112">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="80">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="112">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="64">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="32">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="80">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="64">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="64">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="192" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="192">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="96">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="48">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="176" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="176">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="144" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="144">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="32">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="64">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>108</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="64">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="32">
       <c r="A25" t="s">
         <v>113</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="48">
       <c r="A27" t="s">
         <v>125</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="96">
       <c r="A28" t="s">
         <v>127</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>133</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>142</v>
       </c>
@@ -1748,6 +1748,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1759,13 +1764,13 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="46.5" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -1776,7 +1781,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1784,7 +1789,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1792,7 +1797,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1800,7 +1805,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1808,7 +1813,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1816,7 +1821,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1824,7 +1829,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -1834,5 +1839,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/refs/litreview/full_review_guide.xlsx
+++ b/refs/litreview/full_review_guide.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28028"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielbuonaiuto/Documents/git/decsens/refs/litreview/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18600" yWindow="5640" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="23100" yWindow="4440" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="decsens review" sheetId="1" r:id="rId1"/>
     <sheet name="meta" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -274,9 +279,6 @@
     <t>4 European species</t>
   </si>
   <si>
-    <t>Wang2014</t>
-  </si>
-  <si>
     <t>PEP sps</t>
   </si>
   <si>
@@ -298,9 +300,6 @@
     <t>Wang2017</t>
   </si>
   <si>
-    <t>Wenden</t>
-  </si>
-  <si>
     <t>Quercus and Fagus clones</t>
   </si>
   <si>
@@ -461,12 +460,18 @@
   </si>
   <si>
     <t>3,6</t>
+  </si>
+  <si>
+    <t>Wang2016gcb</t>
+  </si>
+  <si>
+    <t>Wenden2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -825,7 +830,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -836,13 +841,13 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="A25:J25"/>
+      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" customWidth="1"/>
@@ -853,7 +858,7 @@
     <col min="10" max="10" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -882,10 +887,10 @@
         <v>71</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -911,7 +916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="48">
+    <row r="3" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -943,7 +948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="144">
+    <row r="4" spans="1:10" ht="144" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -975,7 +980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="112">
+    <row r="5" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1007,7 +1012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1036,7 +1041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="80">
+    <row r="7" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1068,7 +1073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="112">
+    <row r="8" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1100,7 +1105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="64">
+    <row r="9" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1129,10 +1134,10 @@
         <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="32">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1164,7 +1169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="80">
+    <row r="11" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -1190,13 +1195,13 @@
         <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="64">
+    <row r="12" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -1225,7 +1230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="64">
+    <row r="13" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -1254,7 +1259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -1277,7 +1282,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="192">
+    <row r="15" spans="1:10" ht="192" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -1309,7 +1314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="96">
+    <row r="16" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -1335,18 +1340,18 @@
         <v>4</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="48">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -1358,10 +1363,10 @@
         <v>15</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" t="s">
         <v>85</v>
-      </c>
-      <c r="H17" t="s">
-        <v>86</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1370,15 +1375,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="176">
+    <row r="18" spans="1:10" ht="176" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -1390,7 +1395,7 @@
         <v>15</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s">
         <v>80</v>
@@ -1399,15 +1404,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="144">
+    <row r="19" spans="1:10" ht="144" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -1419,27 +1424,27 @@
         <v>40</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>93</v>
       </c>
-      <c r="H19" t="s">
+      <c r="B20" t="s">
         <v>94</v>
       </c>
-      <c r="I19" t="s">
-        <v>87</v>
-      </c>
-      <c r="J19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
+      <c r="C20" t="s">
         <v>95</v>
-      </c>
-      <c r="B20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" t="s">
-        <v>97</v>
       </c>
       <c r="D20" t="s">
         <v>34</v>
@@ -1451,7 +1456,7 @@
         <v>15</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I20">
         <v>3</v>
@@ -1460,15 +1465,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="32">
+    <row r="21" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
         <v>98</v>
-      </c>
-      <c r="B21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" t="s">
-        <v>100</v>
       </c>
       <c r="D21" t="s">
         <v>34</v>
@@ -1477,36 +1482,36 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" t="s">
         <v>103</v>
       </c>
-      <c r="J21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="64">
-      <c r="A22" t="s">
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" t="s">
-        <v>105</v>
-      </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="I22" t="s">
         <v>80</v>
@@ -1515,15 +1520,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -1541,27 +1546,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="64">
+    <row r="24" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
         <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I24">
         <v>6</v>
@@ -1570,15 +1575,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="32">
+    <row r="25" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" t="s">
         <v>113</v>
-      </c>
-      <c r="B25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" t="s">
-        <v>115</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
@@ -1590,10 +1595,10 @@
         <v>15</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -1602,41 +1607,41 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" t="s">
         <v>117</v>
       </c>
-      <c r="B26" t="s">
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="D26" t="s">
-        <v>119</v>
-      </c>
-      <c r="E26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="I26" t="s">
         <v>79</v>
       </c>
       <c r="J26" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="48">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
         <v>30</v>
@@ -1648,27 +1653,27 @@
         <v>15</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I27" t="s">
+        <v>128</v>
+      </c>
+      <c r="J27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" t="s">
         <v>130</v>
       </c>
-      <c r="J27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="96">
-      <c r="A28" t="s">
-        <v>127</v>
-      </c>
-      <c r="B28" t="s">
-        <v>132</v>
-      </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D28" t="s">
         <v>30</v>
@@ -1680,25 +1685,25 @@
         <v>15</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" t="s">
         <v>132</v>
-      </c>
-      <c r="C29" t="s">
-        <v>134</v>
       </c>
       <c r="D29" t="s">
         <v>55</v>
@@ -1710,36 +1715,36 @@
         <v>15</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B30" t="s">
+      <c r="I30" t="s">
         <v>143</v>
-      </c>
-      <c r="C30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I30" t="s">
-        <v>145</v>
       </c>
       <c r="J30" t="s">
         <v>10</v>
@@ -1764,24 +1769,24 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="46.5" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1789,7 +1794,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1797,7 +1802,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1805,7 +1810,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1813,7 +1818,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1821,15 +1826,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>80</v>
       </c>

--- a/refs/litreview/full_review_guide.xlsx
+++ b/refs/litreview/full_review_guide.xlsx
@@ -1,34 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielbuonaiuto/Documents/git/decsens/refs/litreview/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27226"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="23100" yWindow="4440" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="4460" yWindow="3740" windowWidth="37060" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="decsens review" sheetId="1" r:id="rId1"/>
     <sheet name="meta" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="159">
   <si>
     <t>studyID</t>
   </si>
@@ -466,13 +461,52 @@
   </si>
   <si>
     <t>Wenden2019</t>
+  </si>
+  <si>
+    <t>preseason</t>
+  </si>
+  <si>
+    <t>no mention</t>
+  </si>
+  <si>
+    <t>Nov1-April 30</t>
+  </si>
+  <si>
+    <t>The optimal preseason for RP (relevant preseason) was defined as the period (at 15-day intervals) before the mean leaf unfolding date for which the Pearson correlation coefficient between leaf unfolding and air temperature was highest. The core algorithm for these models was ordinary least squares.</t>
+  </si>
+  <si>
+    <t>Similarly to previous studies (Matsumoto et al. 2003; Dai et al. 2013), we estimated the optimum preseason (OP) that affects the phenophase most significantly for each species. First, we calculated the mean occurrence of LUD over the study period for each species, which was defined as the end date of OP (EP). We then calculated the start date of the OP (BP) by moving the date from EP-120 (120 days before EP) to EP-1 (the day before EP) in steps of 15 days. PearsonÕs correlation analysis was performed to compare the series of data from each year and the mean temperature during each [BP, EP] period. The [BP, EP] period showing the correlation coefficient (R) with the highest absolute value was taken as the OP. (Dan's note 30-90 days was the OP for most)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> November to the mean date of leaf unfolding (MSOS)</t>
+  </si>
+  <si>
+    <t>I think not applicable</t>
+  </si>
+  <si>
+    <t>The phenology-based three-season division (no autumn) was determined from the partial correlation of the SOS to the climate of the individual month before the average SOS (Suppl. Material Fig. S1) and differs from a calendar-based four-season division.</t>
+  </si>
+  <si>
+    <t>to August of the year of tree-ring formation Ð</t>
+  </si>
+  <si>
+    <t>tarting from June of the previous year to August of the year of tree-ring formation</t>
+  </si>
+  <si>
+    <t>specifically varied (one of the main points of this study)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The preseason at each station was defined as the period (with 5 day steps) before the mean FBD for which the Spearman's rank correlation coefficient between FBD and mean temperature was highest during 1963Ð2013 (H. Wang, Zhong, et al., 2017).</t>
+  </si>
+  <si>
+    <t>Here preseason temperature is defined as the mean temperature for the two months with the later month containing the 27-year average (1982Ð2008) of spring phenological date for each pixel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -494,6 +528,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -512,10 +562,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -524,8 +580,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -830,7 +898,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -838,16 +906,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" customWidth="1"/>
@@ -856,9 +924,10 @@
     <col min="7" max="7" width="50" customWidth="1"/>
     <col min="8" max="8" width="41.5" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -889,8 +958,11 @@
       <c r="J1" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -915,8 +987,11 @@
       <c r="J2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="45">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -947,8 +1022,11 @@
       <c r="J3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="144" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="180">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -979,8 +1057,11 @@
       <c r="J4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="K4" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="409">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1011,8 +1092,11 @@
       <c r="J5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1040,8 +1124,11 @@
       <c r="J6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="K6" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="80">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1072,8 +1159,11 @@
       <c r="J7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="150">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1104,8 +1194,11 @@
       <c r="J8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="K8" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="60">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -1136,8 +1229,11 @@
       <c r="J9" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K9" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="60">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1168,8 +1264,11 @@
       <c r="J10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="K10" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="75">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -1200,8 +1299,11 @@
       <c r="J11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="K11" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="64">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -1230,7 +1332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="64">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -1259,7 +1361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -1282,7 +1384,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="192" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="192">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -1314,7 +1416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="96">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -1343,7 +1445,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="48">
       <c r="A17" t="s">
         <v>144</v>
       </c>
@@ -1375,7 +1477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="176" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="165">
       <c r="A18" t="s">
         <v>89</v>
       </c>
@@ -1403,8 +1505,11 @@
       <c r="J18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="144" x14ac:dyDescent="0.2">
+      <c r="K18" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="120">
       <c r="A19" t="s">
         <v>145</v>
       </c>
@@ -1436,7 +1541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -1465,7 +1570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="30">
       <c r="A21" t="s">
         <v>96</v>
       </c>
@@ -1491,7 +1596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="60">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -1520,7 +1625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -1546,7 +1651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="64">
       <c r="A24" t="s">
         <v>108</v>
       </c>
@@ -1574,8 +1679,11 @@
       <c r="J24" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="150">
       <c r="A25" t="s">
         <v>111</v>
       </c>
@@ -1606,8 +1714,11 @@
       <c r="J25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>115</v>
       </c>
@@ -1633,7 +1744,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="48">
       <c r="A27" t="s">
         <v>123</v>
       </c>
@@ -1665,7 +1776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="96">
       <c r="A28" t="s">
         <v>125</v>
       </c>
@@ -1695,7 +1806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>131</v>
       </c>
@@ -1724,7 +1835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>140</v>
       </c>
@@ -1752,7 +1863,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1769,13 +1880,13 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="46.5" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -1786,7 +1897,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1794,7 +1905,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1802,7 +1913,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1810,7 +1921,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1818,7 +1929,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1826,7 +1937,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1834,7 +1945,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>80</v>
       </c>
